--- a/Statistics summary.xlsx
+++ b/Statistics summary.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c35664cb8c095f08/Desktop/Bootcamp Projects/Rental Analysis/Rental-Analysis-Project-one-/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_63771D0C71E6C57BF5CC556311F2ECEE19AC7807" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F495BF6-F50C-4FDA-9968-4ADFDAC23DA9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provinces" sheetId="1" r:id="rId1"/>
     <sheet name="Ontario" sheetId="2" r:id="rId2"/>
     <sheet name="Toronto" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -222,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -286,6 +295,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -332,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +381,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +433,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,47 +626,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -676,118 +731,118 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>170.9943089430894</v>
+        <v>170.99430894308941</v>
       </c>
       <c r="C4">
         <v>117489.2261677479</v>
       </c>
       <c r="D4">
-        <v>342.7670144102958</v>
+        <v>342.76701441029581</v>
       </c>
       <c r="E4">
-        <v>9.773417829569132</v>
+        <v>9.7734178295691319</v>
       </c>
       <c r="F4">
-        <v>457.580487804878</v>
+        <v>457.58048780487798</v>
       </c>
       <c r="G4">
         <v>269578.5545416653</v>
       </c>
       <c r="H4">
-        <v>519.2095478144304</v>
+        <v>519.20954781443038</v>
       </c>
       <c r="I4">
         <v>14.80437626304936</v>
       </c>
       <c r="J4">
-        <v>661.9130081300813</v>
+        <v>661.91300813008127</v>
       </c>
       <c r="K4">
-        <v>371152.5823367533</v>
+        <v>371152.58233675332</v>
       </c>
       <c r="L4">
-        <v>609.2229331999521</v>
+        <v>609.22293319995208</v>
       </c>
       <c r="M4">
         <v>17.3709546928328</v>
       </c>
       <c r="N4">
-        <v>483.0373983739838</v>
+        <v>483.03739837398382</v>
       </c>
       <c r="O4">
-        <v>439865.3134903783</v>
+        <v>439865.31349037832</v>
       </c>
       <c r="P4">
-        <v>663.2234265241075</v>
+        <v>663.22342652410748</v>
       </c>
       <c r="Q4">
-        <v>18.91068682011411</v>
+        <v>18.910686820114108</v>
       </c>
       <c r="R4">
-        <v>727.1609756097561</v>
+        <v>727.16097560975606</v>
       </c>
       <c r="S4">
-        <v>336217.129476672</v>
+        <v>336217.12947667198</v>
       </c>
       <c r="T4">
-        <v>579.8423315666699</v>
+        <v>579.84233156666994</v>
       </c>
       <c r="U4">
-        <v>16.53321685991966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>16.533216859919659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>389.5685714285714</v>
+        <v>389.56857142857137</v>
       </c>
       <c r="C5">
-        <v>299891.5629769849</v>
+        <v>299891.56297698489</v>
       </c>
       <c r="D5">
-        <v>547.6235595525314</v>
+        <v>547.62355955253145</v>
       </c>
       <c r="E5">
-        <v>16.90002995142415</v>
+        <v>16.900029951424148</v>
       </c>
       <c r="F5">
-        <v>603.9647619047619</v>
+        <v>603.96476190476187</v>
       </c>
       <c r="G5">
-        <v>451556.4420364068</v>
+        <v>451556.44203640678</v>
       </c>
       <c r="H5">
-        <v>671.9794952499717</v>
+        <v>671.97949524997171</v>
       </c>
       <c r="I5">
-        <v>20.73773744458125</v>
+        <v>20.737737444581249</v>
       </c>
       <c r="J5">
-        <v>813.1761904761905</v>
+        <v>813.17619047619053</v>
       </c>
       <c r="K5">
         <v>815652.5151618321</v>
       </c>
       <c r="L5">
-        <v>903.1348266797334</v>
+        <v>903.13482667973335</v>
       </c>
       <c r="M5">
-        <v>27.87134584482322</v>
+        <v>27.871345844823221</v>
       </c>
       <c r="N5">
-        <v>541.432380952381</v>
+        <v>541.43238095238098</v>
       </c>
       <c r="O5">
         <v>1016868.360056289</v>
@@ -799,84 +854,84 @@
         <v>31.11986595723808</v>
       </c>
       <c r="R5">
-        <v>760.9714285714285</v>
+        <v>760.97142857142853</v>
       </c>
       <c r="S5">
-        <v>597931.1069045349</v>
+        <v>597931.10690453486</v>
       </c>
       <c r="T5">
-        <v>773.2600512793448</v>
+        <v>773.26005127934479</v>
       </c>
       <c r="U5">
-        <v>23.86332326085238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>23.863323260852379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>273.4344827586207</v>
+        <v>273.43448275862067</v>
       </c>
       <c r="C6">
-        <v>133269.2084954063</v>
+        <v>133269.20849540629</v>
       </c>
       <c r="D6">
-        <v>365.0605545596597</v>
+        <v>365.06055455965969</v>
       </c>
       <c r="E6">
         <v>21.43709389846827</v>
       </c>
       <c r="F6">
-        <v>465.3758620689655</v>
+        <v>465.37586206896549</v>
       </c>
       <c r="G6">
         <v>238867.5364395658</v>
       </c>
       <c r="H6">
-        <v>488.7407660913562</v>
+        <v>488.74076609135619</v>
       </c>
       <c r="I6">
-        <v>28.69984599499506</v>
+        <v>28.699845994995059</v>
       </c>
       <c r="J6">
-        <v>637.9551724137931</v>
+        <v>637.95517241379309</v>
       </c>
       <c r="K6">
-        <v>374329.0948693475</v>
+        <v>374329.09486934752</v>
       </c>
       <c r="L6">
-        <v>611.8243987202108</v>
+        <v>611.82439872021075</v>
       </c>
       <c r="M6">
-        <v>35.92756577209336</v>
+        <v>35.927565772093359</v>
       </c>
       <c r="N6">
-        <v>659.8275862068965</v>
+        <v>659.82758620689651</v>
       </c>
       <c r="O6">
-        <v>583487.3127311777</v>
+        <v>583487.31273117766</v>
       </c>
       <c r="P6">
-        <v>763.8634123527437</v>
+        <v>763.86341235274369</v>
       </c>
       <c r="Q6">
-        <v>44.85560406810286</v>
+        <v>44.855604068102863</v>
       </c>
       <c r="R6">
-        <v>783.0103448275862</v>
+        <v>783.01034482758621</v>
       </c>
       <c r="S6">
-        <v>316114.1832836178</v>
+        <v>316114.18328361778</v>
       </c>
       <c r="T6">
         <v>562.2403252023264</v>
       </c>
       <c r="U6">
-        <v>33.01588871853284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>33.015888718532842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -884,129 +939,129 @@
         <v>123.0269230769231</v>
       </c>
       <c r="C7">
-        <v>65393.60158895156</v>
+        <v>65393.601588951562</v>
       </c>
       <c r="D7">
         <v>255.7217268613513</v>
       </c>
       <c r="E7">
-        <v>15.85918825997089</v>
+        <v>15.859188259970891</v>
       </c>
       <c r="F7">
-        <v>283.4346153846154</v>
+        <v>283.43461538461543</v>
       </c>
       <c r="G7">
-        <v>140670.5709979211</v>
+        <v>140670.57099792111</v>
       </c>
       <c r="H7">
         <v>375.0607564087731</v>
       </c>
       <c r="I7">
-        <v>23.26028068799497</v>
+        <v>23.260280687994971</v>
       </c>
       <c r="J7">
-        <v>362.9807692307692</v>
+        <v>362.98076923076923</v>
       </c>
       <c r="K7">
-        <v>211685.7563855063</v>
+        <v>211685.75638550631</v>
       </c>
       <c r="L7">
-        <v>460.0932040201271</v>
+        <v>460.09320402012708</v>
       </c>
       <c r="M7">
-        <v>28.53376922346751</v>
+        <v>28.533769223467509</v>
       </c>
       <c r="N7">
-        <v>238.6384615384615</v>
+        <v>238.63846153846151</v>
       </c>
       <c r="O7">
         <v>183479.3745767746</v>
       </c>
       <c r="P7">
-        <v>428.3449247706509</v>
+        <v>428.34492477065089</v>
       </c>
       <c r="Q7">
-        <v>26.56482452828108</v>
+        <v>26.564824528281079</v>
       </c>
       <c r="R7">
         <v>357.2923076923077</v>
       </c>
       <c r="S7">
-        <v>196560.4856548856</v>
+        <v>196560.48565488559</v>
       </c>
       <c r="T7">
-        <v>443.3514245549298</v>
+        <v>443.35142455492979</v>
       </c>
       <c r="U7">
-        <v>27.4954881372091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>27.495488137209101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>181.6269230769231</v>
+        <v>181.62692307692311</v>
       </c>
       <c r="C8">
         <v>122012.5359518859</v>
       </c>
       <c r="D8">
-        <v>349.3029286334225</v>
+        <v>349.30292863342248</v>
       </c>
       <c r="E8">
         <v>21.66284802213989</v>
       </c>
       <c r="F8">
-        <v>414.4692307692308</v>
+        <v>414.46923076923082</v>
       </c>
       <c r="G8">
         <v>254847.4005940005</v>
       </c>
       <c r="H8">
-        <v>504.8241283793798</v>
+        <v>504.82412837937977</v>
       </c>
       <c r="I8">
-        <v>31.30786338888243</v>
+        <v>31.307863388882431</v>
       </c>
       <c r="J8">
         <v>601.35</v>
       </c>
       <c r="K8">
-        <v>447802.236100386</v>
+        <v>447802.23610038601</v>
       </c>
       <c r="L8">
-        <v>669.1802717507338</v>
+        <v>669.18027175073382</v>
       </c>
       <c r="M8">
-        <v>41.50079869946833</v>
+        <v>41.500798699468334</v>
       </c>
       <c r="N8">
-        <v>579.3076923076923</v>
+        <v>579.30769230769226</v>
       </c>
       <c r="O8">
-        <v>604524.5844965845</v>
+        <v>604524.58449658449</v>
       </c>
       <c r="P8">
-        <v>777.5117905836441</v>
+        <v>777.51179058364414</v>
       </c>
       <c r="Q8">
-        <v>48.21923429251127</v>
+        <v>48.219234292511267</v>
       </c>
       <c r="R8">
-        <v>671.9269230769231</v>
+        <v>671.92692307692312</v>
       </c>
       <c r="S8">
-        <v>413114.3459904959</v>
+        <v>413114.34599049587</v>
       </c>
       <c r="T8">
-        <v>642.7397186968423</v>
+        <v>642.73971869684226</v>
       </c>
       <c r="U8">
-        <v>39.86102520925267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>39.861025209252666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,22 +1072,22 @@
         <v>126891.075862069</v>
       </c>
       <c r="D9">
-        <v>356.2177365910757</v>
+        <v>356.21773659107572</v>
       </c>
       <c r="E9">
-        <v>65.03616323812184</v>
+        <v>65.036163238121844</v>
       </c>
       <c r="F9">
-        <v>511.3333333333333</v>
+        <v>511.33333333333331</v>
       </c>
       <c r="G9">
         <v>159272.7816091954</v>
       </c>
       <c r="H9">
-        <v>399.0899417539803</v>
+        <v>399.08994175398033</v>
       </c>
       <c r="I9">
-        <v>72.86352119069262</v>
+        <v>72.863521190692623</v>
       </c>
       <c r="J9">
         <v>810.5</v>
@@ -1041,10 +1096,10 @@
         <v>86717.5</v>
       </c>
       <c r="L9">
-        <v>294.4783523452955</v>
+        <v>294.47835234529549</v>
       </c>
       <c r="M9">
-        <v>53.7641454254909</v>
+        <v>53.764145425490902</v>
       </c>
       <c r="N9">
         <v>456.3</v>
@@ -1053,217 +1108,217 @@
         <v>224081.3206896552</v>
       </c>
       <c r="P9">
-        <v>473.3722855107333</v>
+        <v>473.37228551073332</v>
       </c>
       <c r="Q9">
-        <v>86.42555962400151</v>
+        <v>86.425559624001508</v>
       </c>
       <c r="R9">
-        <v>823.1666666666666</v>
+        <v>823.16666666666663</v>
       </c>
       <c r="S9">
         <v>84616.00574712643</v>
       </c>
       <c r="T9">
-        <v>290.8883045897969</v>
+        <v>290.88830458979692</v>
       </c>
       <c r="U9">
-        <v>53.10869537942176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>53.108695379421761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>241.8181556195966</v>
+        <v>241.81815561959661</v>
       </c>
       <c r="C10">
-        <v>183899.1946544233</v>
+        <v>183899.19465442331</v>
       </c>
       <c r="D10">
-        <v>428.8346938558299</v>
+        <v>428.83469385582993</v>
       </c>
       <c r="E10">
-        <v>7.279896020380865</v>
+        <v>7.2798960203808649</v>
       </c>
       <c r="F10">
-        <v>485.0118155619597</v>
+        <v>485.01181556195968</v>
       </c>
       <c r="G10">
-        <v>361183.7309067631</v>
+        <v>361183.73090676311</v>
       </c>
       <c r="H10">
-        <v>600.9856328621867</v>
+        <v>600.98563286218666</v>
       </c>
       <c r="I10">
-        <v>10.20232966143915</v>
+        <v>10.202329661439149</v>
       </c>
       <c r="J10">
-        <v>632.5841498559078</v>
+        <v>632.58414985590775</v>
       </c>
       <c r="K10">
-        <v>525378.6206192672</v>
+        <v>525378.62061926723</v>
       </c>
       <c r="L10">
-        <v>724.8300632694999</v>
+        <v>724.83006326949987</v>
       </c>
       <c r="M10">
-        <v>12.30471220880747</v>
+        <v>12.304712208807469</v>
       </c>
       <c r="N10">
-        <v>457.8812680115274</v>
+        <v>457.88126801152742</v>
       </c>
       <c r="O10">
-        <v>570710.5324538542</v>
+        <v>570710.53245385422</v>
       </c>
       <c r="P10">
-        <v>755.4538585869121</v>
+        <v>755.45385858691213</v>
       </c>
       <c r="Q10">
         <v>12.82458163367993</v>
       </c>
       <c r="R10">
-        <v>663.878386167147</v>
+        <v>663.87838616714703</v>
       </c>
       <c r="S10">
-        <v>466810.7877425657</v>
+        <v>466810.78774256568</v>
       </c>
       <c r="T10">
-        <v>683.235528747273</v>
+        <v>683.23552874727295</v>
       </c>
       <c r="U10">
         <v>11.59860355977229</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>141.0713567839196</v>
+        <v>141.07135678391961</v>
       </c>
       <c r="C11">
-        <v>68709.20958639345</v>
+        <v>68709.209586393452</v>
       </c>
       <c r="D11">
-        <v>262.1244162347214</v>
+        <v>262.12441623472142</v>
       </c>
       <c r="E11">
-        <v>5.875988512428157</v>
+        <v>5.8759885124281572</v>
       </c>
       <c r="F11">
-        <v>278.5537688442211</v>
+        <v>278.55376884422111</v>
       </c>
       <c r="G11">
-        <v>139054.1808681418</v>
+        <v>139054.18086814179</v>
       </c>
       <c r="H11">
-        <v>372.8996927702433</v>
+        <v>372.89969277024329</v>
       </c>
       <c r="I11">
-        <v>8.359214843396551</v>
+        <v>8.3592148433965505</v>
       </c>
       <c r="J11">
-        <v>390.7276381909548</v>
+        <v>390.72763819095479</v>
       </c>
       <c r="K11">
-        <v>204827.1092910504</v>
+        <v>204827.10929105041</v>
       </c>
       <c r="L11">
-        <v>452.5782907863018</v>
+        <v>452.57829078630181</v>
       </c>
       <c r="M11">
         <v>10.14535340062846</v>
       </c>
       <c r="N11">
-        <v>374.5758793969849</v>
+        <v>374.57587939698487</v>
       </c>
       <c r="O11">
-        <v>258909.5696542042</v>
+        <v>258909.56965420421</v>
       </c>
       <c r="P11">
-        <v>508.8315729730263</v>
+        <v>508.83157297302631</v>
       </c>
       <c r="Q11">
         <v>11.4063715257755</v>
       </c>
       <c r="R11">
-        <v>405.6974874371859</v>
+        <v>405.69748743718588</v>
       </c>
       <c r="S11">
         <v>197502.2060771432</v>
       </c>
       <c r="T11">
-        <v>444.4122028895508</v>
+        <v>444.41220288955083</v>
       </c>
       <c r="U11">
-        <v>9.962295906931187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>9.9622959069311872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>220.8351351351351</v>
+        <v>220.83513513513509</v>
       </c>
       <c r="C12">
         <v>114717.5255914452</v>
       </c>
       <c r="D12">
-        <v>338.6997572946358</v>
+        <v>338.69975729463579</v>
       </c>
       <c r="E12">
-        <v>17.60816192745187</v>
+        <v>17.608161927451871</v>
       </c>
       <c r="F12">
-        <v>468.3756756756757</v>
+        <v>468.37567567567572</v>
       </c>
       <c r="G12">
-        <v>236574.1538782686</v>
+        <v>236574.15387826861</v>
       </c>
       <c r="H12">
-        <v>486.3888916065709</v>
+        <v>486.38889160657089</v>
       </c>
       <c r="I12">
-        <v>25.28615441454872</v>
+        <v>25.286154414548719</v>
       </c>
       <c r="J12">
         <v>553.4405405405405</v>
       </c>
       <c r="K12">
-        <v>323382.2471324984</v>
+        <v>323382.24713249842</v>
       </c>
       <c r="L12">
-        <v>568.6670793465175</v>
+        <v>568.66707934651754</v>
       </c>
       <c r="M12">
-        <v>29.56359371475459</v>
+        <v>29.563593714754589</v>
       </c>
       <c r="N12">
-        <v>382.3675675675676</v>
+        <v>382.36756756756762</v>
       </c>
       <c r="O12">
-        <v>379179.0135794327</v>
+        <v>379179.01357943268</v>
       </c>
       <c r="P12">
-        <v>615.775132316524</v>
+        <v>615.77513231652404</v>
       </c>
       <c r="Q12">
-        <v>32.0126247722563</v>
+        <v>32.012624772256302</v>
       </c>
       <c r="R12">
         <v>578.627027027027</v>
       </c>
       <c r="S12">
-        <v>303944.0502160696</v>
+        <v>303944.05021606962</v>
       </c>
       <c r="T12">
-        <v>551.3112099495797</v>
+        <v>551.31120994957973</v>
       </c>
       <c r="U12">
-        <v>28.66130502941862</v>
+        <v>28.661305029418621</v>
       </c>
     </row>
   </sheetData>
@@ -1279,47 +1334,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1382,12 +1437,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1407,25 +1462,25 @@
         <v>1392.75</v>
       </c>
       <c r="G4">
-        <v>24350.91666666668</v>
+        <v>24350.916666666679</v>
       </c>
       <c r="H4">
-        <v>156.0478025050871</v>
+        <v>156.04780250508711</v>
       </c>
       <c r="I4">
-        <v>78.02390125254357</v>
+        <v>78.023901252543567</v>
       </c>
       <c r="J4">
         <v>1588.75</v>
       </c>
       <c r="K4">
-        <v>22500.91666666667</v>
+        <v>22500.916666666672</v>
       </c>
       <c r="L4">
-        <v>150.0030555244348</v>
+        <v>150.00305552443481</v>
       </c>
       <c r="M4">
-        <v>75.00152776221739</v>
+        <v>75.001527762217393</v>
       </c>
       <c r="N4">
         <v>379</v>
@@ -1443,16 +1498,16 @@
         <v>1494.75</v>
       </c>
       <c r="S4">
-        <v>28160.91666666667</v>
+        <v>28160.916666666672</v>
       </c>
       <c r="T4">
-        <v>167.8121469580396</v>
+        <v>167.81214695803959</v>
       </c>
       <c r="U4">
-        <v>83.90607347901978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>83.906073479019781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1463,25 +1518,25 @@
         <v>191688.2</v>
       </c>
       <c r="D5">
-        <v>437.8221099944589</v>
+        <v>437.82210999445891</v>
       </c>
       <c r="E5">
         <v>195.8</v>
       </c>
       <c r="F5">
-        <v>1055.4</v>
+        <v>1055.4000000000001</v>
       </c>
       <c r="G5">
-        <v>22730.8</v>
+        <v>22730.799999999999</v>
       </c>
       <c r="H5">
         <v>150.7673704751794</v>
       </c>
       <c r="I5">
-        <v>67.42521783427918</v>
+        <v>67.425217834279181</v>
       </c>
       <c r="J5">
-        <v>1260.6</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="K5">
         <v>18082.3</v>
@@ -1490,7 +1545,7 @@
         <v>134.470442848977</v>
       </c>
       <c r="M5">
-        <v>60.13701023496262</v>
+        <v>60.137010234962617</v>
       </c>
       <c r="N5">
         <v>903.6</v>
@@ -1499,10 +1554,10 @@
         <v>721595.3</v>
       </c>
       <c r="P5">
-        <v>849.4676568298524</v>
+        <v>849.46765682985244</v>
       </c>
       <c r="Q5">
-        <v>379.8934850718027</v>
+        <v>379.89348507180267</v>
       </c>
       <c r="R5">
         <v>1211.2</v>
@@ -1511,13 +1566,13 @@
         <v>20334.2</v>
       </c>
       <c r="T5">
-        <v>142.5980364521195</v>
+        <v>142.59803645211949</v>
       </c>
       <c r="U5">
-        <v>63.77178059298642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>63.771780592986417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1583,7 @@
         <v>220928.4</v>
       </c>
       <c r="D6">
-        <v>470.0302117949441</v>
+        <v>470.03021179494408</v>
       </c>
       <c r="E6">
         <v>191.8890304316534</v>
@@ -1540,10 +1595,10 @@
         <v>9144.399999999996</v>
       </c>
       <c r="H6">
-        <v>95.62635619953318</v>
+        <v>95.626356199533177</v>
       </c>
       <c r="I6">
-        <v>39.03929644174785</v>
+        <v>39.039296441747851</v>
       </c>
       <c r="J6">
         <v>1261.333333333333</v>
@@ -1552,63 +1607,63 @@
         <v>12126.26666666667</v>
       </c>
       <c r="L6">
-        <v>110.1193292145692</v>
+        <v>110.11932921456921</v>
       </c>
       <c r="M6">
-        <v>44.95602789887519</v>
+        <v>44.956027898875192</v>
       </c>
       <c r="N6">
         <v>1123.666666666667</v>
       </c>
       <c r="O6">
-        <v>329492.2666666667</v>
+        <v>329492.26666666672</v>
       </c>
       <c r="P6">
-        <v>574.0141693953789</v>
+        <v>574.01416939537887</v>
       </c>
       <c r="Q6">
-        <v>234.3403033576977</v>
+        <v>234.34030335769771</v>
       </c>
       <c r="R6">
         <v>1221.166666666667</v>
       </c>
       <c r="S6">
-        <v>8282.966666666664</v>
+        <v>8282.9666666666635</v>
       </c>
       <c r="T6">
-        <v>91.01080521930714</v>
+        <v>91.010805219307144</v>
       </c>
       <c r="U6">
-        <v>37.15500564452176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>37.155005644521758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <v>549.5714285714286</v>
+        <v>549.57142857142856</v>
       </c>
       <c r="C7">
         <v>146206.9523809524</v>
       </c>
       <c r="D7">
-        <v>382.3701771594542</v>
+        <v>382.37017715945422</v>
       </c>
       <c r="E7">
-        <v>144.522342504518</v>
+        <v>144.52234250451801</v>
       </c>
       <c r="F7">
-        <v>944.1428571428571</v>
+        <v>944.14285714285711</v>
       </c>
       <c r="G7">
         <v>29682.80952380953</v>
       </c>
       <c r="H7">
-        <v>172.2869975471438</v>
+        <v>172.28699754714381</v>
       </c>
       <c r="I7">
-        <v>65.11836423424822</v>
+        <v>65.118364234248219</v>
       </c>
       <c r="J7">
         <v>1212</v>
@@ -1620,34 +1675,34 @@
         <v>160.1998751560063</v>
       </c>
       <c r="M7">
-        <v>60.54986138948391</v>
+        <v>60.549861389483908</v>
       </c>
       <c r="N7">
-        <v>441.4285714285714</v>
+        <v>441.42857142857139</v>
       </c>
       <c r="O7">
-        <v>568404.6190476191</v>
+        <v>568404.61904761905</v>
       </c>
       <c r="P7">
-        <v>753.9261363340702</v>
+        <v>753.92613633407018</v>
       </c>
       <c r="Q7">
-        <v>284.9572948073896</v>
+        <v>284.95729480738959</v>
       </c>
       <c r="R7">
-        <v>1114.857142857143</v>
+        <v>1114.8571428571429</v>
       </c>
       <c r="S7">
-        <v>25268.4761904762</v>
+        <v>25268.476190476202</v>
       </c>
       <c r="T7">
-        <v>158.9606120725389</v>
+        <v>158.96061207253891</v>
       </c>
       <c r="U7">
-        <v>60.08146397122137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>60.081463971221368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,22 +1713,22 @@
         <v>1752</v>
       </c>
       <c r="D8">
-        <v>41.8568990729127</v>
+        <v>41.856899072912697</v>
       </c>
       <c r="E8">
-        <v>20.92844953645635</v>
+        <v>20.928449536456348</v>
       </c>
       <c r="F8">
         <v>1326.5</v>
       </c>
       <c r="G8">
-        <v>1442.999999999999</v>
+        <v>1442.9999999999991</v>
       </c>
       <c r="H8">
-        <v>37.98683982644515</v>
+        <v>37.986839826445149</v>
       </c>
       <c r="I8">
-        <v>18.99341991322257</v>
+        <v>18.993419913222571</v>
       </c>
       <c r="J8">
         <v>1488</v>
@@ -1682,10 +1737,10 @@
         <v>10895.33333333333</v>
       </c>
       <c r="L8">
-        <v>104.38071341648</v>
+        <v>104.38071341648001</v>
       </c>
       <c r="M8">
-        <v>52.19035670824002</v>
+        <v>52.190356708240017</v>
       </c>
       <c r="N8">
         <v>1157</v>
@@ -1694,25 +1749,25 @@
         <v>604476</v>
       </c>
       <c r="P8">
-        <v>777.4805463804223</v>
+        <v>777.48054638042231</v>
       </c>
       <c r="Q8">
-        <v>388.7402731902112</v>
+        <v>388.74027319021121</v>
       </c>
       <c r="R8">
         <v>1418.25</v>
       </c>
       <c r="S8">
-        <v>3996.250000000001</v>
+        <v>3996.2500000000009</v>
       </c>
       <c r="T8">
-        <v>63.21589989868056</v>
+        <v>63.215899898680561</v>
       </c>
       <c r="U8">
-        <v>31.60794994934028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>31.607949949340281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1720,7 +1775,7 @@
         <v>560.4</v>
       </c>
       <c r="C9">
-        <v>231582.7789473684</v>
+        <v>231582.77894736841</v>
       </c>
       <c r="D9">
         <v>481.2304842249381</v>
@@ -1732,34 +1787,34 @@
         <v>1221.3</v>
       </c>
       <c r="G9">
-        <v>41060.43157894735</v>
+        <v>41060.431578947348</v>
       </c>
       <c r="H9">
-        <v>202.633737514135</v>
+        <v>202.63373751413499</v>
       </c>
       <c r="I9">
-        <v>45.3102811616455</v>
+        <v>45.310281161645499</v>
       </c>
       <c r="J9">
         <v>1425.05</v>
       </c>
       <c r="K9">
-        <v>56970.36578947365</v>
+        <v>56970.365789473653</v>
       </c>
       <c r="L9">
-        <v>238.6846576331911</v>
+        <v>238.68465763319111</v>
       </c>
       <c r="M9">
-        <v>53.37151196540793</v>
+        <v>53.371511965407933</v>
       </c>
       <c r="N9">
-        <v>1279.35</v>
+        <v>1279.3499999999999</v>
       </c>
       <c r="O9">
-        <v>495038.0289473684</v>
+        <v>495038.02894736838</v>
       </c>
       <c r="P9">
-        <v>703.5893894505292</v>
+        <v>703.58938945052921</v>
       </c>
       <c r="Q9">
         <v>157.3273703058957</v>
@@ -1768,16 +1823,16 @@
         <v>1340.5</v>
       </c>
       <c r="S9">
-        <v>56645.94736842104</v>
+        <v>56645.947368421039</v>
       </c>
       <c r="T9">
-        <v>238.0040910749667</v>
+        <v>238.00409107496671</v>
       </c>
       <c r="U9">
-        <v>53.21933265666765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>53.219332656667653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1788,46 +1843,46 @@
         <v>230692.0285714285</v>
       </c>
       <c r="D10">
-        <v>480.3041000984986</v>
+        <v>480.30410009849862</v>
       </c>
       <c r="E10">
         <v>124.0139853864417</v>
       </c>
       <c r="F10">
-        <v>1202.933333333333</v>
+        <v>1202.9333333333329</v>
       </c>
       <c r="G10">
-        <v>35446.78095238093</v>
+        <v>35446.780952380926</v>
       </c>
       <c r="H10">
         <v>188.273155155962</v>
       </c>
       <c r="I10">
-        <v>48.61191963046439</v>
+        <v>48.611919630464392</v>
       </c>
       <c r="J10">
-        <v>1369.266666666667</v>
+        <v>1369.2666666666671</v>
       </c>
       <c r="K10">
-        <v>193567.2095238095</v>
+        <v>193567.20952380949</v>
       </c>
       <c r="L10">
-        <v>439.9627365173209</v>
+        <v>439.96273651732088</v>
       </c>
       <c r="M10">
-        <v>113.597890098895</v>
+        <v>113.59789009889499</v>
       </c>
       <c r="N10">
-        <v>635.8</v>
+        <v>635.79999999999995</v>
       </c>
       <c r="O10">
-        <v>725812.1714285712</v>
+        <v>725812.17142857122</v>
       </c>
       <c r="P10">
-        <v>851.9461082888819</v>
+        <v>851.94610828888187</v>
       </c>
       <c r="Q10">
-        <v>219.971539284604</v>
+        <v>219.97153928460401</v>
       </c>
       <c r="R10">
         <v>1387.133333333333</v>
@@ -1839,18 +1894,18 @@
         <v>233.4871873715272</v>
       </c>
       <c r="U10">
-        <v>60.28613254951571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>60.286132549515713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>417.3333333333333</v>
+        <v>417.33333333333331</v>
       </c>
       <c r="C11">
-        <v>286959.3809523809</v>
+        <v>286959.38095238089</v>
       </c>
       <c r="D11">
         <v>535.6858976605422</v>
@@ -1862,63 +1917,63 @@
         <v>1225.133333333333</v>
       </c>
       <c r="G11">
-        <v>33911.55238095237</v>
+        <v>33911.552380952373</v>
       </c>
       <c r="H11">
         <v>184.1508956832748</v>
       </c>
       <c r="I11">
-        <v>47.54755681136685</v>
+        <v>47.547556811366853</v>
       </c>
       <c r="J11">
         <v>1446.2</v>
       </c>
       <c r="K11">
-        <v>57101.74285714287</v>
+        <v>57101.742857142868</v>
       </c>
       <c r="L11">
-        <v>238.9597096942136</v>
+        <v>238.95970969421359</v>
       </c>
       <c r="M11">
-        <v>61.69913173734989</v>
+        <v>61.699131737349887</v>
       </c>
       <c r="N11">
-        <v>1272.933333333333</v>
+        <v>1272.9333333333329</v>
       </c>
       <c r="O11">
-        <v>561196.0666666667</v>
+        <v>561196.06666666665</v>
       </c>
       <c r="P11">
-        <v>749.1302067509137</v>
+        <v>749.13020675091366</v>
       </c>
       <c r="Q11">
-        <v>193.4245876591472</v>
+        <v>193.42458765914719</v>
       </c>
       <c r="R11">
-        <v>1375.066666666667</v>
+        <v>1375.0666666666671</v>
       </c>
       <c r="S11">
-        <v>47635.49523809525</v>
+        <v>47635.495238095253</v>
       </c>
       <c r="T11">
         <v>218.2555732119921</v>
       </c>
       <c r="U11">
-        <v>56.3533466844666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>56.353346684466601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>369.2272727272727</v>
+        <v>369.22727272727269</v>
       </c>
       <c r="C12">
-        <v>212772.183982684</v>
+        <v>212772.18398268399</v>
       </c>
       <c r="D12">
-        <v>461.2723533691175</v>
+        <v>461.27235336911752</v>
       </c>
       <c r="E12">
         <v>98.34359617333412</v>
@@ -1927,52 +1982,52 @@
         <v>1105.136363636364</v>
       </c>
       <c r="G12">
-        <v>32580.50432900432</v>
+        <v>32580.504329004321</v>
       </c>
       <c r="H12">
         <v>180.5007045111025</v>
       </c>
       <c r="I12">
-        <v>38.48287950445941</v>
+        <v>38.482879504459412</v>
       </c>
       <c r="J12">
         <v>1334.363636363636</v>
       </c>
       <c r="K12">
-        <v>79194.9090909091</v>
+        <v>79194.909090909103</v>
       </c>
       <c r="L12">
-        <v>281.4159005651761</v>
+        <v>281.41590056517612</v>
       </c>
       <c r="M12">
-        <v>59.99807159435478</v>
+        <v>59.998071594354784</v>
       </c>
       <c r="N12">
-        <v>858.1363636363636</v>
+        <v>858.13636363636363</v>
       </c>
       <c r="O12">
-        <v>840398.2186147184</v>
+        <v>840398.21861471841</v>
       </c>
       <c r="P12">
-        <v>916.7323593147121</v>
+        <v>916.73235931471208</v>
       </c>
       <c r="Q12">
-        <v>195.4479957122655</v>
+        <v>195.44799571226551</v>
       </c>
       <c r="R12">
         <v>1252.772727272727</v>
       </c>
       <c r="S12">
-        <v>65970.08874458873</v>
+        <v>65970.088744588735</v>
       </c>
       <c r="T12">
-        <v>256.8464302741791</v>
+        <v>256.84643027417911</v>
       </c>
       <c r="U12">
-        <v>54.75984292783632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>54.759842927836317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1980,64 +2035,64 @@
         <v>837.25</v>
       </c>
       <c r="C13">
-        <v>326407.5833333333</v>
+        <v>326407.58333333331</v>
       </c>
       <c r="D13">
-        <v>571.3209109890284</v>
+        <v>571.32091098902845</v>
       </c>
       <c r="E13">
-        <v>285.6604554945142</v>
+        <v>285.66045549451422</v>
       </c>
       <c r="F13">
         <v>1252.5</v>
       </c>
       <c r="G13">
-        <v>9012.33333333333</v>
+        <v>9012.3333333333303</v>
       </c>
       <c r="H13">
-        <v>94.93330992509073</v>
+        <v>94.933309925090725</v>
       </c>
       <c r="I13">
-        <v>47.46665496254536</v>
+        <v>47.466654962545363</v>
       </c>
       <c r="J13">
         <v>1407.75</v>
       </c>
       <c r="K13">
-        <v>6571.583333333328</v>
+        <v>6571.5833333333276</v>
       </c>
       <c r="L13">
-        <v>81.06530289423046</v>
+        <v>81.065302894230456</v>
       </c>
       <c r="M13">
-        <v>40.53265144711523</v>
+        <v>40.532651447115228</v>
       </c>
       <c r="N13">
         <v>1282.25</v>
       </c>
       <c r="O13">
-        <v>784510.9166666666</v>
+        <v>784510.91666666663</v>
       </c>
       <c r="P13">
-        <v>885.7262086371085</v>
+        <v>885.72620863710847</v>
       </c>
       <c r="Q13">
-        <v>442.8631043185542</v>
+        <v>442.86310431855418</v>
       </c>
       <c r="R13">
         <v>1363.25</v>
       </c>
       <c r="S13">
-        <v>7588.916666666662</v>
+        <v>7588.9166666666624</v>
       </c>
       <c r="T13">
-        <v>87.11438840206974</v>
+        <v>87.114388402069736</v>
       </c>
       <c r="U13">
-        <v>43.55719420103487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>43.557194201034868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,37 +2100,37 @@
         <v>1005.772727272727</v>
       </c>
       <c r="C14">
-        <v>133017.1363636364</v>
+        <v>133017.13636363641</v>
       </c>
       <c r="D14">
-        <v>364.715144138047</v>
+        <v>364.71514413804698</v>
       </c>
       <c r="E14">
-        <v>77.75752999597132</v>
+        <v>77.757529995971325</v>
       </c>
       <c r="F14">
         <v>1366.363636363636</v>
       </c>
       <c r="G14">
-        <v>41440.52813852813</v>
+        <v>41440.528138528127</v>
       </c>
       <c r="H14">
-        <v>203.5694675989701</v>
+        <v>203.56946759897011</v>
       </c>
       <c r="I14">
-        <v>43.40115632023065</v>
+        <v>43.401156320230648</v>
       </c>
       <c r="J14">
         <v>1673.545454545455</v>
       </c>
       <c r="K14">
-        <v>63700.54545454546</v>
+        <v>63700.545454545463</v>
       </c>
       <c r="L14">
-        <v>252.3896698649639</v>
+        <v>252.38966986496391</v>
       </c>
       <c r="M14">
-        <v>53.80965841596632</v>
+        <v>53.809658415966318</v>
       </c>
       <c r="N14">
         <v>1115.545454545455</v>
@@ -2084,25 +2139,25 @@
         <v>932603.8787878789</v>
       </c>
       <c r="P14">
-        <v>965.7141806910981</v>
+        <v>965.71418069109814</v>
       </c>
       <c r="Q14">
-        <v>205.8909551181135</v>
+        <v>205.89095511811351</v>
       </c>
       <c r="R14">
         <v>1488.227272727273</v>
       </c>
       <c r="S14">
-        <v>40513.80303030304</v>
+        <v>40513.803030303039</v>
       </c>
       <c r="T14">
-        <v>201.2804089580082</v>
+        <v>201.28040895800819</v>
       </c>
       <c r="U14">
-        <v>42.91312737819758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>42.913127378197579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2113,31 +2168,31 @@
         <v>229069.8</v>
       </c>
       <c r="D15">
-        <v>478.6123692509419</v>
+        <v>478.61236925094192</v>
       </c>
       <c r="E15">
-        <v>214.0419585034672</v>
+        <v>214.04195850346721</v>
       </c>
       <c r="F15">
-        <v>1121.4</v>
+        <v>1121.4000000000001</v>
       </c>
       <c r="G15">
-        <v>7074.800000000005</v>
+        <v>7074.8000000000047</v>
       </c>
       <c r="H15">
-        <v>84.11183032130501</v>
+        <v>84.111830321305007</v>
       </c>
       <c r="I15">
-        <v>37.61595406207319</v>
+        <v>37.615954062073193</v>
       </c>
       <c r="J15">
         <v>1354.6</v>
       </c>
       <c r="K15">
-        <v>6904.799999999996</v>
+        <v>6904.7999999999956</v>
       </c>
       <c r="L15">
-        <v>83.09512621086748</v>
+        <v>83.095126210867477</v>
       </c>
       <c r="M15">
         <v>37.16127016128484</v>
@@ -2149,25 +2204,25 @@
         <v>484474.7</v>
       </c>
       <c r="P15">
-        <v>696.0421682628144</v>
+        <v>696.04216826281436</v>
       </c>
       <c r="Q15">
-        <v>311.2795206883999</v>
+        <v>311.27952068839988</v>
       </c>
       <c r="R15">
-        <v>1263.6</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="S15">
-        <v>5708.799999999997</v>
+        <v>5708.7999999999975</v>
       </c>
       <c r="T15">
         <v>75.55660129995259</v>
       </c>
       <c r="U15">
-        <v>33.78993933110859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>33.789939331108592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2178,13 +2233,13 @@
         <v>138403.625</v>
       </c>
       <c r="D16">
-        <v>372.0263767530469</v>
+        <v>372.02637675304692</v>
       </c>
       <c r="E16">
-        <v>90.22964981580253</v>
+        <v>90.229649815802532</v>
       </c>
       <c r="F16">
-        <v>1064.058823529412</v>
+        <v>1064.0588235294119</v>
       </c>
       <c r="G16">
         <v>11886.3088235294</v>
@@ -2193,7 +2248,7 @@
         <v>109.0243496817541</v>
       </c>
       <c r="I16">
-        <v>26.44228879424396</v>
+        <v>26.442288794243961</v>
       </c>
       <c r="J16">
         <v>1260.117647058823</v>
@@ -2205,57 +2260,57 @@
         <v>120.0041053219333</v>
       </c>
       <c r="M16">
-        <v>29.10527069118102</v>
+        <v>29.105270691181019</v>
       </c>
       <c r="N16">
-        <v>497.2941176470588</v>
+        <v>497.29411764705878</v>
       </c>
       <c r="O16">
         <v>490448.9705882353</v>
       </c>
       <c r="P16">
-        <v>700.320619850819</v>
+        <v>700.32061985081896</v>
       </c>
       <c r="Q16">
-        <v>169.8526992613505</v>
+        <v>169.85269926135049</v>
       </c>
       <c r="R16">
         <v>1203.411764705882</v>
       </c>
       <c r="S16">
-        <v>14265.25735294117</v>
+        <v>14265.257352941169</v>
       </c>
       <c r="T16">
         <v>119.4372527854738</v>
       </c>
       <c r="U16">
-        <v>28.96778875694739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>28.967788756947389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17">
-        <v>514.8333333333334</v>
+        <v>514.83333333333337</v>
       </c>
       <c r="C17">
-        <v>161920.1666666667</v>
+        <v>161920.16666666669</v>
       </c>
       <c r="D17">
-        <v>402.393049973116</v>
+        <v>402.39304997311598</v>
       </c>
       <c r="E17">
-        <v>164.2762747460644</v>
+        <v>164.27627474606439</v>
       </c>
       <c r="F17">
-        <v>976.8333333333334</v>
+        <v>976.83333333333337</v>
       </c>
       <c r="G17">
-        <v>9134.166666666668</v>
+        <v>9134.1666666666679</v>
       </c>
       <c r="H17">
-        <v>95.57283435509626</v>
+        <v>95.572834355096262</v>
       </c>
       <c r="I17">
         <v>39.01744624025401</v>
@@ -2267,10 +2322,10 @@
         <v>16069.36666666666</v>
       </c>
       <c r="L17">
-        <v>126.7650056863749</v>
+        <v>126.76500568637491</v>
       </c>
       <c r="M17">
-        <v>51.75159686210443</v>
+        <v>51.751596862104428</v>
       </c>
       <c r="N17">
         <v>736</v>
@@ -2279,25 +2334,25 @@
         <v>676719.6</v>
       </c>
       <c r="P17">
-        <v>822.6296858246728</v>
+        <v>822.62968582467283</v>
       </c>
       <c r="Q17">
-        <v>335.8371629227474</v>
+        <v>335.83716292274738</v>
       </c>
       <c r="R17">
         <v>1119.333333333333</v>
       </c>
       <c r="S17">
-        <v>12048.66666666666</v>
+        <v>12048.666666666661</v>
       </c>
       <c r="T17">
-        <v>109.7664186655767</v>
+        <v>109.76641866557669</v>
       </c>
       <c r="U17">
         <v>44.81195277056235</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2305,16 +2360,16 @@
         <v>787.8780487804878</v>
       </c>
       <c r="C18">
-        <v>352330.4850059975</v>
+        <v>352330.48500599753</v>
       </c>
       <c r="D18">
-        <v>593.5743298071418</v>
+        <v>593.57432980714179</v>
       </c>
       <c r="E18">
-        <v>53.52079491051715</v>
+        <v>53.520794910517147</v>
       </c>
       <c r="F18">
-        <v>1489.09756097561</v>
+        <v>1489.0975609756099</v>
       </c>
       <c r="G18">
         <v>50678.30187924824</v>
@@ -2323,19 +2378,19 @@
         <v>225.1184174590081</v>
       </c>
       <c r="I18">
-        <v>20.29824412271743</v>
+        <v>20.298244122717431</v>
       </c>
       <c r="J18">
-        <v>1700.650406504065</v>
+        <v>1700.6504065040649</v>
       </c>
       <c r="K18">
-        <v>288532.8685858989</v>
+        <v>288532.86858589889</v>
       </c>
       <c r="L18">
-        <v>537.1525561569068</v>
+        <v>537.15255615690683</v>
       </c>
       <c r="M18">
-        <v>48.43341490706756</v>
+        <v>48.433414907067558</v>
       </c>
       <c r="N18">
         <v>1284.528455284553</v>
@@ -2344,36 +2399,36 @@
         <v>1167196.447954152</v>
       </c>
       <c r="P18">
-        <v>1080.368662982295</v>
+        <v>1080.3686629822951</v>
       </c>
       <c r="Q18">
         <v>97.41356176573882</v>
       </c>
       <c r="R18">
-        <v>1627.308943089431</v>
+        <v>1627.3089430894311</v>
       </c>
       <c r="S18">
         <v>109296.2644275623</v>
       </c>
       <c r="T18">
-        <v>330.5998554560517</v>
+        <v>330.59985545605173</v>
       </c>
       <c r="U18">
         <v>29.80918508901641</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>502.6666666666667</v>
+        <v>502.66666666666669</v>
       </c>
       <c r="C19">
         <v>207362.9696969697</v>
       </c>
       <c r="D19">
-        <v>455.3712438186778</v>
+        <v>455.37124381867778</v>
       </c>
       <c r="E19">
         <v>131.4543550999642</v>
@@ -2385,19 +2440,19 @@
         <v>10338.38636363636</v>
       </c>
       <c r="H19">
-        <v>101.6778558174609</v>
+        <v>101.67785581746089</v>
       </c>
       <c r="I19">
-        <v>29.3518687134175</v>
+        <v>29.351868713417499</v>
       </c>
       <c r="J19">
         <v>1111.75</v>
       </c>
       <c r="K19">
-        <v>131508.9318181818</v>
+        <v>131508.93181818179</v>
       </c>
       <c r="L19">
-        <v>362.6416024371471</v>
+        <v>362.64160243714713</v>
       </c>
       <c r="M19">
         <v>104.6856133932221</v>
@@ -2406,25 +2461,25 @@
         <v>468.75</v>
       </c>
       <c r="O19">
-        <v>493883.6590909091</v>
+        <v>493883.65909090912</v>
       </c>
       <c r="P19">
-        <v>702.768567233132</v>
+        <v>702.76856723313199</v>
       </c>
       <c r="Q19">
-        <v>202.8718107350282</v>
+        <v>202.87181073502819</v>
       </c>
       <c r="R19">
         <v>1092.666666666667</v>
       </c>
       <c r="S19">
-        <v>11418.42424242423</v>
+        <v>11418.424242424229</v>
       </c>
       <c r="T19">
         <v>106.8570271083013</v>
       </c>
       <c r="U19">
-        <v>30.84696668289044</v>
+        <v>30.846966682890439</v>
       </c>
     </row>
   </sheetData>
@@ -2440,47 +2495,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2543,12 +2600,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2568,25 +2625,25 @@
         <v>1264.666666666667</v>
       </c>
       <c r="G4">
-        <v>55014.33333333334</v>
+        <v>55014.333333333343</v>
       </c>
       <c r="H4">
-        <v>234.5513447698251</v>
+        <v>234.55134476982511</v>
       </c>
       <c r="I4">
-        <v>135.4182820416472</v>
+        <v>135.41828204164719</v>
       </c>
       <c r="J4">
         <v>1407.333333333333</v>
       </c>
       <c r="K4">
-        <v>53924.33333333332</v>
+        <v>53924.333333333321</v>
       </c>
       <c r="L4">
-        <v>232.2161349547729</v>
+        <v>232.21613495477291</v>
       </c>
       <c r="M4">
-        <v>134.0700480263126</v>
+        <v>134.07004802631261</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2604,16 +2661,16 @@
         <v>1379.333333333333</v>
       </c>
       <c r="S4">
-        <v>34302.33333333332</v>
+        <v>34302.333333333321</v>
       </c>
       <c r="T4">
-        <v>185.2088910752757</v>
+        <v>185.20889107527569</v>
       </c>
       <c r="U4">
-        <v>106.9304031186225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>106.93040311862249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2633,7 +2690,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2653,7 +2710,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2673,48 +2730,48 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8">
-        <v>992.5714285714286</v>
+        <v>992.57142857142856</v>
       </c>
       <c r="C8">
-        <v>196866.9523809523</v>
+        <v>196866.95238095231</v>
       </c>
       <c r="D8">
-        <v>443.6969150004903</v>
+        <v>443.69691500049032</v>
       </c>
       <c r="E8">
-        <v>167.7016706539802</v>
+        <v>167.70167065398019</v>
       </c>
       <c r="F8">
         <v>1346.285714285714</v>
       </c>
       <c r="G8">
-        <v>6640.571428571434</v>
+        <v>6640.5714285714339</v>
       </c>
       <c r="H8">
-        <v>81.48970136508927</v>
+        <v>81.489701365089275</v>
       </c>
       <c r="I8">
-        <v>30.80021203213527</v>
+        <v>30.800212032135271</v>
       </c>
       <c r="J8">
-        <v>1626.857142857143</v>
+        <v>1626.8571428571429</v>
       </c>
       <c r="K8">
-        <v>41765.47619047618</v>
+        <v>41765.476190476184</v>
       </c>
       <c r="L8">
-        <v>204.3660348259372</v>
+        <v>204.36603482593719</v>
       </c>
       <c r="M8">
-        <v>77.24310065397074</v>
+        <v>77.243100653970743</v>
       </c>
       <c r="N8">
-        <v>1115.428571428571</v>
+        <v>1115.4285714285711</v>
       </c>
       <c r="O8">
         <v>1133498.952380952</v>
@@ -2723,54 +2780,54 @@
         <v>1064.659078006172</v>
       </c>
       <c r="Q8">
-        <v>402.4033073530925</v>
+        <v>402.40330735309249</v>
       </c>
       <c r="R8">
-        <v>1447.571428571429</v>
+        <v>1447.5714285714289</v>
       </c>
       <c r="S8">
-        <v>11259.95238095239</v>
+        <v>11259.952380952391</v>
       </c>
       <c r="T8">
         <v>106.1129227801797</v>
       </c>
       <c r="U8">
-        <v>40.10691493807946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>40.106914938079463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B9">
-        <v>438.5555555555555</v>
+        <v>438.55555555555549</v>
       </c>
       <c r="C9">
-        <v>444635.7777777777</v>
+        <v>444635.77777777769</v>
       </c>
       <c r="D9">
-        <v>666.8101512258025</v>
+        <v>666.81015122580254</v>
       </c>
       <c r="E9">
-        <v>222.2700504086008</v>
+        <v>222.27005040860081</v>
       </c>
       <c r="F9">
-        <v>1699.888888888889</v>
+        <v>1699.8888888888889</v>
       </c>
       <c r="G9">
-        <v>35091.61111111112</v>
+        <v>35091.611111111117</v>
       </c>
       <c r="H9">
-        <v>187.3275503259227</v>
+        <v>187.32755032592269</v>
       </c>
       <c r="I9">
-        <v>62.44251677530758</v>
+        <v>62.442516775307581</v>
       </c>
       <c r="J9">
-        <v>2078.777777777778</v>
+        <v>2078.7777777777778</v>
       </c>
       <c r="K9">
-        <v>364015.6944444444</v>
+        <v>364015.69444444438</v>
       </c>
       <c r="L9">
         <v>603.3371316639184</v>
@@ -2779,22 +2836,22 @@
         <v>201.1123772213061</v>
       </c>
       <c r="N9">
-        <v>1511.888888888889</v>
+        <v>1511.8888888888889</v>
       </c>
       <c r="O9">
         <v>1377452.361111111</v>
       </c>
       <c r="P9">
-        <v>1173.649164406089</v>
+        <v>1173.6491644060891</v>
       </c>
       <c r="Q9">
-        <v>391.216388135363</v>
+        <v>391.21638813536299</v>
       </c>
       <c r="R9">
-        <v>1984.555555555556</v>
+        <v>1984.5555555555561</v>
       </c>
       <c r="S9">
-        <v>175753.7777777778</v>
+        <v>175753.77777777781</v>
       </c>
       <c r="T9">
         <v>419.2299819642887</v>
@@ -2803,33 +2860,33 @@
         <v>139.7433273214296</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10">
-        <v>738.6666666666666</v>
+        <v>738.66666666666663</v>
       </c>
       <c r="C10">
-        <v>409950.3333333334</v>
+        <v>409950.33333333337</v>
       </c>
       <c r="D10">
-        <v>640.2736394178144</v>
+        <v>640.27363941781437</v>
       </c>
       <c r="E10">
-        <v>369.6621580728965</v>
+        <v>369.66215807289649</v>
       </c>
       <c r="F10">
         <v>1336.333333333333</v>
       </c>
       <c r="G10">
-        <v>17966.33333333334</v>
+        <v>17966.333333333339</v>
       </c>
       <c r="H10">
-        <v>134.0385516682919</v>
+        <v>134.03855166829189</v>
       </c>
       <c r="I10">
-        <v>77.38719388747587</v>
+        <v>77.387193887475874</v>
       </c>
       <c r="J10">
         <v>1511</v>
@@ -2841,34 +2898,34 @@
         <v>165.5022658455164</v>
       </c>
       <c r="M10">
-        <v>95.55277773740193</v>
+        <v>95.552777737401925</v>
       </c>
       <c r="N10">
-        <v>632.3333333333334</v>
+        <v>632.33333333333337</v>
       </c>
       <c r="O10">
         <v>1199536.333333333</v>
       </c>
       <c r="P10">
-        <v>1095.23346065272</v>
+        <v>1095.2334606527199</v>
       </c>
       <c r="Q10">
-        <v>632.3333333333333</v>
+        <v>632.33333333333326</v>
       </c>
       <c r="R10">
         <v>1483.666666666667</v>
       </c>
       <c r="S10">
-        <v>45666.33333333332</v>
+        <v>45666.333333333321</v>
       </c>
       <c r="T10">
-        <v>213.696825744636</v>
+        <v>213.69682574463599</v>
       </c>
       <c r="U10">
-        <v>123.3779198686341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>123.37791986863409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2876,25 +2933,25 @@
         <v>1121.5</v>
       </c>
       <c r="C11">
-        <v>5823.000000000005</v>
+        <v>5823.0000000000045</v>
       </c>
       <c r="D11">
-        <v>76.30858405186146</v>
+        <v>76.308584051861459</v>
       </c>
       <c r="E11">
-        <v>38.15429202593073</v>
+        <v>38.154292025930729</v>
       </c>
       <c r="F11">
         <v>1327.25</v>
       </c>
       <c r="G11">
-        <v>4906.250000000003</v>
+        <v>4906.2500000000027</v>
       </c>
       <c r="H11">
-        <v>70.04462863060952</v>
+        <v>70.044628630609523</v>
       </c>
       <c r="I11">
-        <v>35.02231431530476</v>
+        <v>35.022314315304797</v>
       </c>
       <c r="J11">
         <v>1495</v>
@@ -2906,19 +2963,19 @@
         <v>111.9374825516458</v>
       </c>
       <c r="M11">
-        <v>55.96874127582288</v>
+        <v>55.968741275822879</v>
       </c>
       <c r="N11">
         <v>1410.25</v>
       </c>
       <c r="O11">
-        <v>890782.9166666666</v>
+        <v>890782.91666666663</v>
       </c>
       <c r="P11">
-        <v>943.8129669943439</v>
+        <v>943.81296699434392</v>
       </c>
       <c r="Q11">
-        <v>471.906483497172</v>
+        <v>471.90648349717202</v>
       </c>
       <c r="R11">
         <v>1392.75</v>
@@ -2930,10 +2987,10 @@
         <v>113.9338258230042</v>
       </c>
       <c r="U11">
-        <v>56.96691291150211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>56.966912911502106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2953,7 +3010,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2973,7 +3030,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2984,10 +3041,10 @@
         <v>474338</v>
       </c>
       <c r="D14">
-        <v>688.7220048756973</v>
+        <v>688.72200487569728</v>
       </c>
       <c r="E14">
-        <v>486.9999999999999</v>
+        <v>486.99999999999989</v>
       </c>
       <c r="F14">
         <v>1543.5</v>
@@ -2996,7 +3053,7 @@
         <v>7812.5</v>
       </c>
       <c r="H14">
-        <v>88.38834764831844</v>
+        <v>88.388347648318444</v>
       </c>
       <c r="I14">
         <v>62.5</v>
@@ -3008,7 +3065,7 @@
         <v>1152</v>
       </c>
       <c r="L14">
-        <v>33.94112549695428</v>
+        <v>33.941125496954278</v>
       </c>
       <c r="M14">
         <v>24</v>
@@ -3032,13 +3089,13 @@
         <v>2178</v>
       </c>
       <c r="T14">
-        <v>46.66904755831214</v>
+        <v>46.669047558312137</v>
       </c>
       <c r="U14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3049,7 +3106,7 @@
         <v>865928</v>
       </c>
       <c r="D15">
-        <v>930.5525240414966</v>
+        <v>930.55252404149655</v>
       </c>
       <c r="E15">
         <v>658</v>
@@ -3061,7 +3118,7 @@
         <v>200</v>
       </c>
       <c r="H15">
-        <v>14.14213562373095</v>
+        <v>14.142135623730949</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -3073,7 +3130,7 @@
         <v>11100.5</v>
       </c>
       <c r="L15">
-        <v>105.3589103967956</v>
+        <v>105.35891039679559</v>
       </c>
       <c r="M15">
         <v>74.5</v>
@@ -3085,7 +3142,7 @@
         <v>58482</v>
       </c>
       <c r="P15">
-        <v>241.8305191657992</v>
+        <v>241.83051916579919</v>
       </c>
       <c r="Q15">
         <v>171</v>
@@ -3100,10 +3157,10 @@
         <v>73.53910524340094</v>
       </c>
       <c r="U15">
-        <v>51.99999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>51.999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3114,34 +3171,34 @@
         <v>18597</v>
       </c>
       <c r="D16">
-        <v>136.3708179927069</v>
+        <v>136.37081799270689</v>
       </c>
       <c r="E16">
-        <v>78.7337284776988</v>
+        <v>78.733728477698804</v>
       </c>
       <c r="F16">
         <v>1382.333333333333</v>
       </c>
       <c r="G16">
-        <v>7358.333333333332</v>
+        <v>7358.3333333333321</v>
       </c>
       <c r="H16">
-        <v>85.78072821638513</v>
+        <v>85.780728216385128</v>
       </c>
       <c r="I16">
-        <v>49.52552652701208</v>
+        <v>49.525526527012083</v>
       </c>
       <c r="J16">
         <v>1549.333333333333</v>
       </c>
       <c r="K16">
-        <v>9474.333333333328</v>
+        <v>9474.3333333333285</v>
       </c>
       <c r="L16">
-        <v>97.33618717277417</v>
+        <v>97.336187172774174</v>
       </c>
       <c r="M16">
-        <v>56.19707386609297</v>
+        <v>56.197073866092971</v>
       </c>
       <c r="N16">
         <v>1780</v>
@@ -3150,39 +3207,39 @@
         <v>25123</v>
       </c>
       <c r="P16">
-        <v>158.5023659129415</v>
+        <v>158.50236591294151</v>
       </c>
       <c r="Q16">
-        <v>91.51138362702935</v>
+        <v>91.511383627029346</v>
       </c>
       <c r="R16">
         <v>1481.666666666667</v>
       </c>
       <c r="S16">
-        <v>7822.333333333336</v>
+        <v>7822.3333333333358</v>
       </c>
       <c r="T16">
-        <v>88.44395588921459</v>
+        <v>88.443955889214593</v>
       </c>
       <c r="U16">
-        <v>51.06314174083344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>51.063141740833437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17">
-        <v>653.8</v>
+        <v>653.79999999999995</v>
       </c>
       <c r="C17">
-        <v>362419.2</v>
+        <v>362419.20000000001</v>
       </c>
       <c r="D17">
-        <v>602.0126244523449</v>
+        <v>602.01262445234488</v>
       </c>
       <c r="E17">
-        <v>269.2282303176991</v>
+        <v>269.22823031769911</v>
       </c>
       <c r="F17">
         <v>1488.4</v>
@@ -3194,7 +3251,7 @@
         <v>122.8751398778451</v>
       </c>
       <c r="I17">
-        <v>54.95143310233136</v>
+        <v>54.951433102331357</v>
       </c>
       <c r="J17">
         <v>1727.8</v>
@@ -3203,10 +3260,10 @@
         <v>12148.7</v>
       </c>
       <c r="L17">
-        <v>110.2211413477469</v>
+        <v>110.22114134774689</v>
       </c>
       <c r="M17">
-        <v>49.29239292223497</v>
+        <v>49.292392922234967</v>
       </c>
       <c r="N17">
         <v>1561.4</v>
@@ -3215,10 +3272,10 @@
         <v>775340.8</v>
       </c>
       <c r="P17">
-        <v>880.5343832014739</v>
+        <v>880.53438320147393</v>
       </c>
       <c r="Q17">
-        <v>393.7869474728689</v>
+        <v>393.78694747286892</v>
       </c>
       <c r="R17">
         <v>1650</v>
@@ -3227,13 +3284,13 @@
         <v>23284.5</v>
       </c>
       <c r="T17">
-        <v>152.5925948399856</v>
+        <v>152.59259483998559</v>
       </c>
       <c r="U17">
-        <v>68.24148298505828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>68.241482985058283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -3244,7 +3301,7 @@
         <v>285127.2</v>
       </c>
       <c r="D18">
-        <v>533.9730330269498</v>
+        <v>533.97303302694979</v>
       </c>
       <c r="E18">
         <v>238.8</v>
@@ -3256,22 +3313,22 @@
         <v>129523</v>
       </c>
       <c r="H18">
-        <v>359.8930396659541</v>
+        <v>359.89303966595412</v>
       </c>
       <c r="I18">
         <v>160.9490602644203</v>
       </c>
       <c r="J18">
-        <v>2148.2</v>
+        <v>2148.1999999999998</v>
       </c>
       <c r="K18">
-        <v>346044.7000000001</v>
+        <v>346044.70000000013</v>
       </c>
       <c r="L18">
-        <v>588.2556417069029</v>
+        <v>588.25564170690291</v>
       </c>
       <c r="M18">
-        <v>263.075920600879</v>
+        <v>263.07592060087899</v>
       </c>
       <c r="N18">
         <v>1979.2</v>
@@ -3283,7 +3340,7 @@
         <v>1293.330081611032</v>
       </c>
       <c r="Q18">
-        <v>578.3947959655238</v>
+        <v>578.39479596552383</v>
       </c>
       <c r="R18">
         <v>2070.4</v>
@@ -3292,13 +3349,13 @@
         <v>346585.8</v>
       </c>
       <c r="T18">
-        <v>588.7153811478005</v>
+        <v>588.71538114780049</v>
       </c>
       <c r="U18">
         <v>263.281522329236</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3309,7 +3366,7 @@
         <v>30752</v>
       </c>
       <c r="D19">
-        <v>175.3624817342638</v>
+        <v>175.36248173426381</v>
       </c>
       <c r="E19">
         <v>124</v>
@@ -3321,10 +3378,10 @@
         <v>98</v>
       </c>
       <c r="H19">
-        <v>9.899494936611665</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="I19">
-        <v>6.999999999999999</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="J19">
         <v>1589.5</v>
@@ -3336,7 +3393,7 @@
         <v>132.2289680818844</v>
       </c>
       <c r="M19">
-        <v>93.49999999999999</v>
+        <v>93.499999999999986</v>
       </c>
       <c r="N19">
         <v>1752</v>
@@ -3345,10 +3402,10 @@
         <v>6728</v>
       </c>
       <c r="P19">
-        <v>82.02438661763951</v>
+        <v>82.024386617639507</v>
       </c>
       <c r="Q19">
-        <v>57.99999999999999</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="R19">
         <v>1518</v>
@@ -3357,13 +3414,13 @@
         <v>13448</v>
       </c>
       <c r="T19">
-        <v>115.9655121145938</v>
+        <v>115.96551211459381</v>
       </c>
       <c r="U19">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3374,7 +3431,7 @@
         <v>269311.7</v>
       </c>
       <c r="D20">
-        <v>518.9525026435464</v>
+        <v>518.95250264354638</v>
       </c>
       <c r="E20">
         <v>232.0826146009218</v>
@@ -3401,7 +3458,7 @@
         <v>173.9304458684563</v>
       </c>
       <c r="M20">
-        <v>77.78406006374313</v>
+        <v>77.784060063743127</v>
       </c>
       <c r="N20">
         <v>1996.2</v>
@@ -3410,25 +3467,25 @@
         <v>74724.2</v>
       </c>
       <c r="P20">
-        <v>273.3572753741886</v>
+        <v>273.35727537418859</v>
       </c>
       <c r="Q20">
-        <v>122.249089976163</v>
+        <v>122.24908997616301</v>
       </c>
       <c r="R20">
         <v>1656.2</v>
       </c>
       <c r="S20">
-        <v>25167.2</v>
+        <v>25167.200000000001</v>
       </c>
       <c r="T20">
-        <v>158.6417347358507</v>
+        <v>158.64173473585069</v>
       </c>
       <c r="U20">
-        <v>70.94674058757035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>70.946740587570346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -3439,7 +3496,7 @@
         <v>433852.8</v>
       </c>
       <c r="D21">
-        <v>658.6750336850487</v>
+        <v>658.67503368504867</v>
       </c>
       <c r="E21">
         <v>294.5684300803465</v>
@@ -3451,22 +3508,22 @@
         <v>22178.3</v>
       </c>
       <c r="H21">
-        <v>148.9238060217372</v>
+        <v>148.92380602173719</v>
       </c>
       <c r="I21">
-        <v>66.60075074651937</v>
+        <v>66.600750746519367</v>
       </c>
       <c r="J21">
         <v>1617.4</v>
       </c>
       <c r="K21">
-        <v>55115.79999999999</v>
+        <v>55115.799999999988</v>
       </c>
       <c r="L21">
-        <v>234.7675446052967</v>
+        <v>234.76754460529671</v>
       </c>
       <c r="M21">
-        <v>104.9912377296315</v>
+        <v>104.99123772963149</v>
       </c>
       <c r="N21">
         <v>2092</v>
@@ -3475,7 +3532,7 @@
         <v>147892</v>
       </c>
       <c r="P21">
-        <v>384.5672893005852</v>
+        <v>384.56728930058517</v>
       </c>
       <c r="Q21">
         <v>171.9837201597872</v>
@@ -3484,16 +3541,16 @@
         <v>1537.8</v>
       </c>
       <c r="S21">
-        <v>41257.7</v>
+        <v>41257.699999999997</v>
       </c>
       <c r="T21">
-        <v>203.1199153209749</v>
+        <v>203.11991532097491</v>
       </c>
       <c r="U21">
         <v>90.83798764834016</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -3504,10 +3561,10 @@
         <v>682112</v>
       </c>
       <c r="D22">
-        <v>825.9007204258875</v>
+        <v>825.90072042588747</v>
       </c>
       <c r="E22">
-        <v>583.9999999999999</v>
+        <v>583.99999999999989</v>
       </c>
       <c r="F22">
         <v>1540.5</v>
@@ -3516,7 +3573,7 @@
         <v>24.5</v>
       </c>
       <c r="H22">
-        <v>4.949747468305833</v>
+        <v>4.9497474683058327</v>
       </c>
       <c r="I22">
         <v>3.5</v>
@@ -3528,7 +3585,7 @@
         <v>288</v>
       </c>
       <c r="L22">
-        <v>16.97056274847714</v>
+        <v>16.970562748477139</v>
       </c>
       <c r="M22">
         <v>12</v>
@@ -3540,7 +3597,7 @@
         <v>2115624.5</v>
       </c>
       <c r="P22">
-        <v>1454.518648900728</v>
+        <v>1454.5186489007281</v>
       </c>
       <c r="Q22">
         <v>1028.5</v>
@@ -3552,13 +3609,13 @@
         <v>882</v>
       </c>
       <c r="T22">
-        <v>29.69848480983499</v>
+        <v>29.698484809834991</v>
       </c>
       <c r="U22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -3578,7 +3635,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -3613,7 +3670,7 @@
         <v>882</v>
       </c>
       <c r="L24">
-        <v>29.69848480983499</v>
+        <v>29.698484809834991</v>
       </c>
       <c r="M24">
         <v>21</v>
@@ -3637,13 +3694,13 @@
         <v>5100.5</v>
       </c>
       <c r="T24">
-        <v>71.41778489984129</v>
+        <v>71.417784899841294</v>
       </c>
       <c r="U24">
-        <v>50.49999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>50.499999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -3663,7 +3720,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -3671,13 +3728,13 @@
         <v>463.1</v>
       </c>
       <c r="C26">
-        <v>359981.4333333333</v>
+        <v>359981.43333333329</v>
       </c>
       <c r="D26">
-        <v>599.9845275782812</v>
+        <v>599.98452757828125</v>
       </c>
       <c r="E26">
-        <v>189.7317668007477</v>
+        <v>189.73176680074769</v>
       </c>
       <c r="F26">
         <v>1446.7</v>
@@ -3686,49 +3743,49 @@
         <v>19107.12222222222</v>
       </c>
       <c r="H26">
-        <v>138.228514504867</v>
+        <v>138.22851450486701</v>
       </c>
       <c r="I26">
-        <v>43.71169434170016</v>
+        <v>43.711694341700159</v>
       </c>
       <c r="J26">
         <v>1651.5</v>
       </c>
       <c r="K26">
-        <v>33381.6111111111</v>
+        <v>33381.611111111102</v>
       </c>
       <c r="L26">
-        <v>182.7063521367309</v>
+        <v>182.70635213673091</v>
       </c>
       <c r="M26">
-        <v>57.77682157328413</v>
+        <v>57.776821573284131</v>
       </c>
       <c r="N26">
-        <v>1256.9</v>
+        <v>1256.9000000000001</v>
       </c>
       <c r="O26">
-        <v>814291.8777777778</v>
+        <v>814291.87777777785</v>
       </c>
       <c r="P26">
-        <v>902.3812264103115</v>
+        <v>902.38122641031146</v>
       </c>
       <c r="Q26">
-        <v>285.3579993232672</v>
+        <v>285.35799932326722</v>
       </c>
       <c r="R26">
         <v>1562.5</v>
       </c>
       <c r="S26">
-        <v>20578.27777777778</v>
+        <v>20578.277777777781</v>
       </c>
       <c r="T26">
-        <v>143.4513080378767</v>
+        <v>143.45130803787669</v>
       </c>
       <c r="U26">
-        <v>45.363286673011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>45.363286673010997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3739,46 +3796,46 @@
         <v>589257</v>
       </c>
       <c r="D27">
-        <v>767.6307706182706</v>
+        <v>767.63077061827062</v>
       </c>
       <c r="E27">
-        <v>383.8153853091353</v>
+        <v>383.81538530913531</v>
       </c>
       <c r="F27">
         <v>1394.75</v>
       </c>
       <c r="G27">
-        <v>9831.583333333334</v>
+        <v>9831.5833333333339</v>
       </c>
       <c r="H27">
-        <v>99.15434097069746</v>
+        <v>99.154340970697461</v>
       </c>
       <c r="I27">
-        <v>49.57717048534873</v>
+        <v>49.577170485348731</v>
       </c>
       <c r="J27">
         <v>1524</v>
       </c>
       <c r="K27">
-        <v>7155.333333333336</v>
+        <v>7155.3333333333358</v>
       </c>
       <c r="L27">
-        <v>84.58920340878814</v>
+        <v>84.589203408788137</v>
       </c>
       <c r="M27">
-        <v>42.29460170439407</v>
+        <v>42.294601704394069</v>
       </c>
       <c r="N27">
         <v>1750.5</v>
       </c>
       <c r="O27">
-        <v>31411.66666666668</v>
+        <v>31411.666666666679</v>
       </c>
       <c r="P27">
         <v>177.2333678139268</v>
       </c>
       <c r="Q27">
-        <v>88.61668390696342</v>
+        <v>88.616683906963416</v>
       </c>
       <c r="R27">
         <v>1519.5</v>
@@ -3790,33 +3847,33 @@
         <v>100.6859804871893</v>
       </c>
       <c r="U27">
-        <v>50.34299024359466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>50.342990243594663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B28">
-        <v>408.6666666666667</v>
+        <v>408.66666666666669</v>
       </c>
       <c r="C28">
-        <v>501025.3333333333</v>
+        <v>501025.33333333331</v>
       </c>
       <c r="D28">
-        <v>707.8314300264811</v>
+        <v>707.83143002648114</v>
       </c>
       <c r="E28">
-        <v>408.6666666666667</v>
+        <v>408.66666666666669</v>
       </c>
       <c r="F28">
         <v>1376.666666666667</v>
       </c>
       <c r="G28">
-        <v>758.3333333333326</v>
+        <v>758.33333333333258</v>
       </c>
       <c r="H28">
-        <v>27.5378527364305</v>
+        <v>27.537852736430501</v>
       </c>
       <c r="I28">
         <v>15.89898669028242</v>
@@ -3831,34 +3888,34 @@
         <v>66.83561924602779</v>
       </c>
       <c r="M28">
-        <v>38.58756276314948</v>
+        <v>38.587562763149478</v>
       </c>
       <c r="N28">
         <v>1805.333333333333</v>
       </c>
       <c r="O28">
-        <v>6586.333333333338</v>
+        <v>6586.3333333333376</v>
       </c>
       <c r="P28">
-        <v>81.15622793928596</v>
+        <v>81.156227939285955</v>
       </c>
       <c r="Q28">
-        <v>46.85557004716138</v>
+        <v>46.855570047161379</v>
       </c>
       <c r="R28">
         <v>1524.333333333333</v>
       </c>
       <c r="S28">
-        <v>2058.333333333336</v>
+        <v>2058.3333333333362</v>
       </c>
       <c r="T28">
-        <v>45.36885862938736</v>
+        <v>45.368858629387361</v>
       </c>
       <c r="U28">
-        <v>26.19372274250287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>26.193722742502871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,25 +3923,25 @@
         <v>1101</v>
       </c>
       <c r="C29">
-        <v>480366.5714285714</v>
+        <v>480366.57142857142</v>
       </c>
       <c r="D29">
         <v>693.084822679426</v>
       </c>
       <c r="E29">
-        <v>245.042489027049</v>
+        <v>245.04248902704899</v>
       </c>
       <c r="F29">
         <v>1855.375</v>
       </c>
       <c r="G29">
-        <v>59409.12499999999</v>
+        <v>59409.124999999993</v>
       </c>
       <c r="H29">
         <v>243.7398715844414</v>
       </c>
       <c r="I29">
-        <v>86.17505802144841</v>
+        <v>86.175058021448407</v>
       </c>
       <c r="J29">
         <v>2116.25</v>
@@ -3893,10 +3950,10 @@
         <v>959428.5</v>
       </c>
       <c r="L29">
-        <v>979.5042113232591</v>
+        <v>979.50421132325914</v>
       </c>
       <c r="M29">
-        <v>346.3070350137288</v>
+        <v>346.30703501372881</v>
       </c>
       <c r="N29">
         <v>1524.875</v>
@@ -3905,10 +3962,10 @@
         <v>2780352.125</v>
       </c>
       <c r="P29">
-        <v>1667.438791980083</v>
+        <v>1667.4387919800829</v>
       </c>
       <c r="Q29">
-        <v>589.5286385113109</v>
+        <v>589.52863851131087</v>
       </c>
       <c r="R29">
         <v>2015.625</v>
@@ -3917,13 +3974,13 @@
         <v>126164.2678571428</v>
       </c>
       <c r="T29">
-        <v>355.1960977504438</v>
+        <v>355.19609775044381</v>
       </c>
       <c r="U29">
-        <v>125.5807846851693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>125.58078468516931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3934,10 +3991,10 @@
         <v>275696.3</v>
       </c>
       <c r="D30">
-        <v>525.0679003709901</v>
+        <v>525.06790037099006</v>
       </c>
       <c r="E30">
-        <v>234.8175036065242</v>
+        <v>234.81750360652421</v>
       </c>
       <c r="F30">
         <v>1397.8</v>
@@ -3949,7 +4006,7 @@
         <v>103.2312937049614</v>
       </c>
       <c r="I30">
-        <v>46.16643802590795</v>
+        <v>46.166438025907951</v>
       </c>
       <c r="J30">
         <v>1773.8</v>
@@ -3958,7 +4015,7 @@
         <v>28206.2</v>
       </c>
       <c r="L30">
-        <v>167.9470154542795</v>
+        <v>167.94701545427949</v>
       </c>
       <c r="M30">
         <v>75.10818863479534</v>
@@ -3982,78 +4039,78 @@
         <v>19787.7</v>
       </c>
       <c r="T30">
-        <v>140.6687598580438</v>
+        <v>140.66875985804381</v>
       </c>
       <c r="U30">
-        <v>62.90898187063593</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>62.908981870635927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B31">
-        <v>1229.1</v>
+        <v>1229.0999999999999</v>
       </c>
       <c r="C31">
         <v>192148.1</v>
       </c>
       <c r="D31">
-        <v>438.3470086586653</v>
+        <v>438.34700865866529</v>
       </c>
       <c r="E31">
-        <v>138.6174952882932</v>
+        <v>138.61749528829321</v>
       </c>
       <c r="F31">
         <v>1699.5</v>
       </c>
       <c r="G31">
-        <v>15247.38888888889</v>
+        <v>15247.388888888891</v>
       </c>
       <c r="H31">
-        <v>123.4803178198408</v>
+        <v>123.48031781984081</v>
       </c>
       <c r="I31">
-        <v>39.04790505121739</v>
+        <v>39.047905051217391</v>
       </c>
       <c r="J31">
-        <v>2147.7</v>
+        <v>2147.6999999999998</v>
       </c>
       <c r="K31">
-        <v>28374.90000000001</v>
+        <v>28374.900000000009</v>
       </c>
       <c r="L31">
-        <v>168.4485084528801</v>
+        <v>168.44850845288011</v>
       </c>
       <c r="M31">
-        <v>53.26809551692271</v>
+        <v>53.268095516922713</v>
       </c>
       <c r="N31">
-        <v>1136.6</v>
+        <v>1136.5999999999999</v>
       </c>
       <c r="O31">
-        <v>2183430.266666667</v>
+        <v>2183430.2666666671</v>
       </c>
       <c r="P31">
-        <v>1477.643484290668</v>
+        <v>1477.6434842906681</v>
       </c>
       <c r="Q31">
-        <v>467.2718980065746</v>
+        <v>467.27189800657459</v>
       </c>
       <c r="R31">
         <v>1819</v>
       </c>
       <c r="S31">
-        <v>20865.33333333334</v>
+        <v>20865.333333333339</v>
       </c>
       <c r="T31">
-        <v>144.4483760148702</v>
+        <v>144.44837601487021</v>
       </c>
       <c r="U31">
-        <v>45.67858725194261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>45.678587251942609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,22 +4121,22 @@
         <v>216622</v>
       </c>
       <c r="D32">
-        <v>465.4266859560161</v>
+        <v>465.42668595601612</v>
       </c>
       <c r="E32">
-        <v>164.5531828923403</v>
+        <v>164.55318289234029</v>
       </c>
       <c r="F32">
         <v>1468.625</v>
       </c>
       <c r="G32">
-        <v>27903.12500000001</v>
+        <v>27903.125000000011</v>
       </c>
       <c r="H32">
-        <v>167.0422850657881</v>
+        <v>167.04228506578809</v>
       </c>
       <c r="I32">
-        <v>59.05836625745756</v>
+        <v>59.058366257457557</v>
       </c>
       <c r="J32">
         <v>1203.625</v>
@@ -4091,60 +4148,60 @@
         <v>1018.754553013489</v>
       </c>
       <c r="M32">
-        <v>360.1841264002542</v>
+        <v>360.18412640025417</v>
       </c>
       <c r="N32">
         <v>618</v>
       </c>
       <c r="O32">
-        <v>1360576.285714286</v>
+        <v>1360576.2857142859</v>
       </c>
       <c r="P32">
         <v>1166.437433261761</v>
       </c>
       <c r="Q32">
-        <v>412.3979094446112</v>
+        <v>412.39790944461117</v>
       </c>
       <c r="R32">
         <v>1557.25</v>
       </c>
       <c r="S32">
-        <v>37163.92857142857</v>
+        <v>37163.928571428572</v>
       </c>
       <c r="T32">
         <v>192.7794817179167</v>
       </c>
       <c r="U32">
-        <v>68.15783939818347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>68.157839398183469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B33">
-        <v>990.8888888888889</v>
+        <v>990.88888888888891</v>
       </c>
       <c r="C33">
-        <v>143199.8611111111</v>
+        <v>143199.86111111109</v>
       </c>
       <c r="D33">
-        <v>378.4175750557988</v>
+        <v>378.41757505579881</v>
       </c>
       <c r="E33">
         <v>126.1391916852663</v>
       </c>
       <c r="F33">
-        <v>1343.444444444444</v>
+        <v>1343.4444444444439</v>
       </c>
       <c r="G33">
-        <v>41890.5277777778</v>
+        <v>41890.527777777803</v>
       </c>
       <c r="H33">
         <v>204.6717561799326</v>
       </c>
       <c r="I33">
-        <v>68.22391872664421</v>
+        <v>68.223918726644214</v>
       </c>
       <c r="J33">
         <v>1292</v>
@@ -4153,13 +4210,13 @@
         <v>601830.5</v>
       </c>
       <c r="L33">
-        <v>775.7773520798348</v>
+        <v>775.77735207983483</v>
       </c>
       <c r="M33">
-        <v>258.5924506932783</v>
+        <v>258.59245069327829</v>
       </c>
       <c r="N33">
-        <v>736.4444444444445</v>
+        <v>736.44444444444446</v>
       </c>
       <c r="O33">
         <v>1287576.527777778</v>
@@ -4168,19 +4225,19 @@
         <v>1134.714293457951</v>
       </c>
       <c r="Q33">
-        <v>378.2380978193171</v>
+        <v>378.23809781931709</v>
       </c>
       <c r="R33">
-        <v>1328.555555555556</v>
+        <v>1328.5555555555561</v>
       </c>
       <c r="S33">
-        <v>275732.5277777778</v>
+        <v>275732.52777777781</v>
       </c>
       <c r="T33">
-        <v>525.1023974214722</v>
+        <v>525.10239742147223</v>
       </c>
       <c r="U33">
-        <v>175.0341324738241</v>
+        <v>175.03413247382409</v>
       </c>
     </row>
   </sheetData>
